--- a/Inverter/Boot Strap Capacitor Calculations.xlsx
+++ b/Inverter/Boot Strap Capacitor Calculations.xlsx
@@ -477,7 +477,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
